--- a/biology/Médecine/Coalition_PLUS/Coalition_PLUS.xlsx
+++ b/biology/Médecine/Coalition_PLUS/Coalition_PLUS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coalition PLUS, créée en 2008, est une coalition internationale d’ONG communautaires de lutte contre le sida et les hépatites virales[1]. L’objectif est de regrouper et mettre en commun les savoir-faire de différentes associations internationales de lutte contre le sida. Son siège est basé à Pantin, France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coalition PLUS, créée en 2008, est une coalition internationale d’ONG communautaires de lutte contre le sida et les hépatites virales. L’objectif est de regrouper et mettre en commun les savoir-faire de différentes associations internationales de lutte contre le sida. Son siège est basé à Pantin, France.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Adhérents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 2020, Coalition PLUS regroupe 16 adhérents[2] :
-4 membres fondateurs (AIDES[3] en France, ALCS[4] au Maroc, ARCAD Sida[5] au Mali et COCQ-SIDA[6] au Québec) ;
-9 membres de plein droit (ANCS[7] au Sénégal, ANSS[8] au Burundi, ARAS[9] en Roumanie, GAT[10] au Portugal, Groupe sida Genève en Suisse, IDH[11] en Bolivie, Kimirina[12] en Equateur, PILS[13] à Maurice et REVS+[14] au Burkina Faso) ;
-3 membres observateurs (Malaysian AIDS Council[15] en Malaisie, Fundación Huésped[16] en Argentine et CO 100% LIFE[17] en Ukraine).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 2020, Coalition PLUS regroupe 16 adhérents :
+4 membres fondateurs (AIDES en France, ALCS au Maroc, ARCAD Sida au Mali et COCQ-SIDA au Québec) ;
+9 membres de plein droit (ANCS au Sénégal, ANSS au Burundi, ARAS en Roumanie, GAT au Portugal, Groupe sida Genève en Suisse, IDH en Bolivie, Kimirina en Equateur, PILS à Maurice et REVS+ au Burkina Faso) ;
+3 membres observateurs (Malaysian AIDS Council en Malaisie, Fundación Huésped en Argentine et CO 100% LIFE en Ukraine).</t>
         </is>
       </c>
     </row>
@@ -544,11 +558,13 @@
           <t>Faits notoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coalition PLUS intervient aujourd'hui dans une cinquantaine de pays auprès d’une centaine d’organisations de la société civile.
-Coalition PLUS est par ailleurs labellisée en France, par le Comité de la Charte depuis 2016, « Don en confiance »[18].
-En 2018, à l'occasion des 10 ans de la création de la coalition, RFI a réalisé une émission sur Coalition PLUS[19].
+Coalition PLUS est par ailleurs labellisée en France, par le Comité de la Charte depuis 2016, « Don en confiance ».
+En 2018, à l'occasion des 10 ans de la création de la coalition, RFI a réalisé une émission sur Coalition PLUS.
 </t>
         </is>
       </c>
